--- a/Numerical Solution for Part 1 With Graphs.xlsx
+++ b/Numerical Solution for Part 1 With Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -292,16 +292,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +425,8 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -441,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6677,11 +6670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293332208"/>
-        <c:axId val="4178320"/>
+        <c:axId val="218660976"/>
+        <c:axId val="218667136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293332208"/>
+        <c:axId val="218660976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -6795,12 +6788,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4178320"/>
+        <c:crossAx val="218667136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4178320"/>
+        <c:axId val="218667136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -6928,7 +6921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293332208"/>
+        <c:crossAx val="218660976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6990,12 +6983,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10179,11 +10167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="364769760"/>
-        <c:axId val="364768640"/>
+        <c:axId val="218667696"/>
+        <c:axId val="294502400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="364769760"/>
+        <c:axId val="218667696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -10308,12 +10296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364768640"/>
+        <c:crossAx val="294502400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364768640"/>
+        <c:axId val="294502400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10452,7 +10440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364769760"/>
+        <c:crossAx val="218667696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10473,12 +10461,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -11612,10 +11595,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -11623,10 +11607,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -11661,7 +11646,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666807" cy="6290272"/>
+    <xdr:ext cx="8678333" cy="6297083"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11949,7 +11934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H505"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
